--- a/Satisfactory.xlsx
+++ b/Satisfactory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1818b100d5005dc0/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\AppData\Local\FactoryGame\Saved\SaveGames\45a12aef330a476d83f09d4e6dfdd6b1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{F3A26FA1-37DE-42FD-B457-A56022FC23E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{969BBBF3-8DC1-4D31-B44B-FD1826825B52}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89469B9C-0996-41E0-8507-3848FD83D686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6150" windowWidth="16440" windowHeight="28440" xr2:uid="{7BA9FDB7-C96A-4562-A7F4-B75870D6130C}"/>
+    <workbookView xWindow="28800" yWindow="3360" windowWidth="16200" windowHeight="18810" xr2:uid="{7BA9FDB7-C96A-4562-A7F4-B75870D6130C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
   <si>
     <t>R. Plates</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Water</t>
+  </si>
+  <si>
+    <t>Water Total</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,8 +844,13 @@
         <v>8.861538461538462</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="4"/>
+      <c r="D34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="4">
+        <f>SUM(B31,D31,F31)</f>
+        <v>1.4769230769230768</v>
+      </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">

--- a/Satisfactory.xlsx
+++ b/Satisfactory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\AppData\Local\FactoryGame\Saved\SaveGames\45a12aef330a476d83f09d4e6dfdd6b1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89469B9C-0996-41E0-8507-3848FD83D686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CA4C3C-1D2C-4EBA-923B-10F50C6ADCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3360" windowWidth="16200" windowHeight="18810" xr2:uid="{7BA9FDB7-C96A-4562-A7F4-B75870D6130C}"/>
   </bookViews>
@@ -463,7 +463,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +717,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="2">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
@@ -732,7 +732,7 @@
       </c>
       <c r="D27" s="2">
         <f>PRODUCT(B26, 3/5)</f>
-        <v>7.1999999999999993</v>
+        <v>6.3</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="2"/>
@@ -745,14 +745,14 @@
       </c>
       <c r="D28" s="2">
         <f>PRODUCT(D27, 1.5)</f>
-        <v>10.799999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="2">
         <f>PRODUCT(D27, 1.5)</f>
-        <v>10.799999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
       </c>
       <c r="B29" s="2">
         <f>PRODUCT(B26, 12/15)</f>
-        <v>9.6000000000000014</v>
+        <v>8.4</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="2"/>
@@ -770,7 +770,7 @@
       </c>
       <c r="F29" s="2">
         <f>PRODUCT(F28, 2/3)</f>
-        <v>7.1999999999999993</v>
+        <v>6.2999999999999989</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -779,21 +779,21 @@
       </c>
       <c r="B30" s="2">
         <f>PRODUCT(B29,15/65)</f>
-        <v>2.215384615384616</v>
+        <v>1.9384615384615387</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="2">
         <f>PRODUCT(D28, 30/65)</f>
-        <v>4.9846153846153847</v>
+        <v>4.3615384615384611</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F30" s="2">
         <f>PRODUCT(F29, 15/65)</f>
-        <v>1.6615384615384614</v>
+        <v>1.4538461538461538</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -802,21 +802,21 @@
       </c>
       <c r="B31" s="2">
         <f>PRODUCT(B30,20/120)</f>
-        <v>0.36923076923076931</v>
+        <v>0.32307692307692309</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2">
         <f>PRODUCT(D30,20/120)</f>
-        <v>0.8307692307692307</v>
+        <v>0.72692307692307678</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2">
         <f>PRODUCT(F30,20/120)</f>
-        <v>0.27692307692307688</v>
+        <v>0.24230769230769228</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
       </c>
       <c r="B34" s="2">
         <f>SUM(D30,F30,B30)</f>
-        <v>8.861538461538462</v>
+        <v>7.7538461538461538</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="2" t="s">
@@ -849,7 +849,7 @@
       </c>
       <c r="E34" s="4">
         <f>SUM(B31,D31,F31)</f>
-        <v>1.4769230769230768</v>
+        <v>1.2923076923076922</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -858,8 +858,8 @@
         <v>8</v>
       </c>
       <c r="B35" s="2">
-        <f>PRODUCT(B34,30)</f>
-        <v>265.84615384615387</v>
+        <f>PRODUCT(B34,35)</f>
+        <v>271.38461538461536</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="2"/>

--- a/Satisfactory.xlsx
+++ b/Satisfactory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\AppData\Local\FactoryGame\Saved\SaveGames\45a12aef330a476d83f09d4e6dfdd6b1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CA4C3C-1D2C-4EBA-923B-10F50C6ADCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA004E59-0B0E-4D01-8DC4-DC120B202110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3360" windowWidth="16200" windowHeight="18810" xr2:uid="{7BA9FDB7-C96A-4562-A7F4-B75870D6130C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>R. Plates</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t>Water Total</t>
+  </si>
+  <si>
+    <t>H. M. Frame</t>
+  </si>
+  <si>
+    <t>M. Frame</t>
+  </si>
+  <si>
+    <t>Steel Pipe</t>
+  </si>
+  <si>
+    <t>Comp. Steel</t>
+  </si>
+  <si>
+    <t>Cast Screw</t>
+  </si>
+  <si>
+    <t>Enc. Beam</t>
   </si>
 </sst>
 </file>
@@ -460,9 +478,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B5E2A5-6C29-4378-9A48-BB66D1E6F725}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -717,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="2">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
@@ -732,7 +750,7 @@
       </c>
       <c r="D27" s="2">
         <f>PRODUCT(B26, 3/5)</f>
-        <v>6.3</v>
+        <v>6.8999999999999995</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="2"/>
@@ -745,14 +763,14 @@
       </c>
       <c r="D28" s="2">
         <f>PRODUCT(D27, 1.5)</f>
-        <v>9.4499999999999993</v>
+        <v>10.35</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="2">
         <f>PRODUCT(D27, 1.5)</f>
-        <v>9.4499999999999993</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -761,7 +779,7 @@
       </c>
       <c r="B29" s="2">
         <f>PRODUCT(B26, 12/15)</f>
-        <v>8.4</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="2"/>
@@ -770,7 +788,7 @@
       </c>
       <c r="F29" s="2">
         <f>PRODUCT(F28, 2/3)</f>
-        <v>6.2999999999999989</v>
+        <v>6.8999999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -779,21 +797,21 @@
       </c>
       <c r="B30" s="2">
         <f>PRODUCT(B29,15/65)</f>
-        <v>1.9384615384615387</v>
+        <v>2.1230769230769235</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="2">
         <f>PRODUCT(D28, 30/65)</f>
-        <v>4.3615384615384611</v>
+        <v>4.7769230769230768</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F30" s="2">
         <f>PRODUCT(F29, 15/65)</f>
-        <v>1.4538461538461538</v>
+        <v>1.5923076923076922</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -802,21 +820,21 @@
       </c>
       <c r="B31" s="2">
         <f>PRODUCT(B30,20/120)</f>
-        <v>0.32307692307692309</v>
+        <v>0.35384615384615392</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2">
         <f>PRODUCT(D30,20/120)</f>
-        <v>0.72692307692307678</v>
+        <v>0.7961538461538461</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2">
         <f>PRODUCT(F30,20/120)</f>
-        <v>0.24230769230769228</v>
+        <v>0.26538461538461533</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -827,7 +845,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
       <c r="C33" s="4"/>
@@ -835,13 +853,13 @@
       <c r="E33" s="4"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="2">
         <f>SUM(D30,F30,B30)</f>
-        <v>7.7538461538461538</v>
+        <v>8.4923076923076923</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="2" t="s">
@@ -849,22 +867,157 @@
       </c>
       <c r="E34" s="4">
         <f>SUM(B31,D31,F31)</f>
-        <v>1.2923076923076922</v>
+        <v>1.4153846153846152</v>
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="2">
         <f>PRODUCT(B34,35)</f>
-        <v>271.38461538461536</v>
+        <v>297.23076923076923</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="2"/>
       <c r="E35" s="4"/>
       <c r="F35" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="2">
+        <f>PRODUCT(B40, 5)</f>
+        <v>5</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="2">
+        <f>PRODUCT(B40, 1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="2">
+        <f>PRODUCT(B40, 4)</f>
+        <v>4</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="2">
+        <f>PRODUCT(D40, 10/6)</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2">
+        <f>PRODUCT(D41, 30/37.5)</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
